--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pichau\Documents\GitHub\Auto-Poster-Facebook\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pichau\Documents\GitHub\Auto-Poster-Facebook-4\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5E22C-3491-4490-892D-ABB8384B75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9B4AF-35D7-4C9F-A568-C49BA132F682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>license</t>
-  </si>
-  <si>
-    <t>lucas_schumascher@hotmail.com</t>
   </si>
   <si>
     <t>D:\Top Server Ragnarok\chamada auto poster2.png</t>
@@ -406,7 +403,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,17 +423,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2">
         <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
